--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_GiaThanh.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -280,6 +280,24 @@
   </si>
   <si>
     <t>Nâng cấp khay sim_FW</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Thiết bị hỏng connector</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.181005</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp fw</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1351,23 +1369,51 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="37">
+        <v>44495</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44496</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>87857039900324</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="J8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="65"/>
       <c r="U8" s="75"/>
@@ -1380,23 +1426,51 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="38"/>
+      <c r="B9" s="37">
+        <v>44495</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44496</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>88183034666870</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>87</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="65"/>
       <c r="U9" s="75"/>
@@ -1409,23 +1483,51 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37">
+        <v>44495</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44496</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>88183033792784</v>
+      </c>
       <c r="F10" s="55"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="I10" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>87</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="65"/>
       <c r="U10" s="75"/>
@@ -1438,23 +1540,51 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37">
+        <v>44495</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44496</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>87857039908848</v>
+      </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="I11" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>87</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
       <c r="U11" s="75"/>
@@ -1723,7 +1853,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1787,7 +1917,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2064,7 +2194,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2160,7 +2290,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -2192,7 +2322,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2256,7 +2386,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2864,7 +2994,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
